--- a/VeslinkReportExport/Resources/ReportTemplate.xlsx
+++ b/VeslinkReportExport/Resources/ReportTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollos\Veslink\Repos\ReportExport\VeslinkReportExport\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42321B61-BAF6-4FFB-A86D-1BD7EA339294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7085C5-0B97-4C8F-B3AD-9818D9B8E8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
   <si>
     <t>Validation</t>
   </si>
@@ -2206,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M19" s="18">
         <f t="shared" ref="M19:M20" ca="1" si="0">NOW()</f>
-        <v>44640.737794212961</v>
+        <v>44650.448355324072</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2991,7 +2991,7 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="85" t="s">
         <v>35</v>
       </c>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>44640.737794212961</v>
+        <v>44650.448355324072</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="M27" s="21">
         <f t="shared" ref="M27:M28" ca="1" si="1">NOW()</f>
-        <v>44640.737794212961</v>
+        <v>44650.448355324072</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="M28" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>44640.737794212961</v>
+        <v>44650.448355324072</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -4687,7 +4687,9 @@
         <v>47</v>
       </c>
       <c r="B62" s="74"/>
-      <c r="C62" s="75"/>
+      <c r="C62" s="75" t="s">
+        <v>3</v>
+      </c>
       <c r="D62" s="74"/>
       <c r="E62" s="60" t="s">
         <v>48</v>
